--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H2">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I2">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J2">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>4374.329942333894</v>
+        <v>5202.396619424885</v>
       </c>
       <c r="R2">
-        <v>39368.96948100505</v>
+        <v>46821.56957482397</v>
       </c>
       <c r="S2">
-        <v>0.422040522139789</v>
+        <v>0.4487673129126854</v>
       </c>
       <c r="T2">
-        <v>0.4220405221397892</v>
+        <v>0.4487673129126855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H3">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I3">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J3">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>2199.85137401765</v>
+        <v>2424.227472029275</v>
       </c>
       <c r="R3">
-        <v>19798.66236615885</v>
+        <v>21818.04724826348</v>
       </c>
       <c r="S3">
-        <v>0.21224426020891</v>
+        <v>0.2091178601127026</v>
       </c>
       <c r="T3">
-        <v>0.21224426020891</v>
+        <v>0.2091178601127026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H4">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I4">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J4">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>711.9626658998044</v>
+        <v>679.2046793114612</v>
       </c>
       <c r="R4">
-        <v>6407.663993098239</v>
+        <v>6112.842113803151</v>
       </c>
       <c r="S4">
-        <v>0.06869099935796615</v>
+        <v>0.05858931587688565</v>
       </c>
       <c r="T4">
-        <v>0.06869099935796616</v>
+        <v>0.05858931587688564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H5">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I5">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J5">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>2106.441002378353</v>
+        <v>2446.146146302746</v>
       </c>
       <c r="R5">
-        <v>18957.96902140518</v>
+        <v>22015.31531672471</v>
       </c>
       <c r="S5">
-        <v>0.2032319171667465</v>
+        <v>0.2110086011068795</v>
       </c>
       <c r="T5">
-        <v>0.2032319171667465</v>
+        <v>0.2110086011068795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.037205</v>
       </c>
       <c r="I6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>198.2090002535094</v>
+        <v>213.9120569995161</v>
       </c>
       <c r="R6">
-        <v>1783.881002281585</v>
+        <v>1925.208512995645</v>
       </c>
       <c r="S6">
-        <v>0.01912343857518087</v>
+        <v>0.01845240685050082</v>
       </c>
       <c r="T6">
-        <v>0.01912343857518087</v>
+        <v>0.01845240685050082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.037205</v>
       </c>
       <c r="I7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>99.67934456213112</v>
+        <v>99.67934456213111</v>
       </c>
       <c r="R7">
-        <v>897.11410105918</v>
+        <v>897.1141010591799</v>
       </c>
       <c r="S7">
-        <v>0.009617180958029947</v>
+        <v>0.008598504667064466</v>
       </c>
       <c r="T7">
-        <v>0.009617180958029947</v>
+        <v>0.008598504667064466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.037205</v>
       </c>
       <c r="I8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>32.26034846162778</v>
+        <v>27.92752661969723</v>
       </c>
       <c r="R8">
-        <v>290.34313615465</v>
+        <v>251.347739577275</v>
       </c>
       <c r="S8">
-        <v>0.003112516542794814</v>
+        <v>0.002409074508203204</v>
       </c>
       <c r="T8">
-        <v>0.003112516542794814</v>
+        <v>0.002409074508203204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.037205</v>
       </c>
       <c r="I9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>95.44674742839611</v>
+        <v>100.5805962435261</v>
       </c>
       <c r="R9">
-        <v>859.020726855565</v>
+        <v>905.2253661917351</v>
       </c>
       <c r="S9">
-        <v>0.009208814984754548</v>
+        <v>0.008676248123572093</v>
       </c>
       <c r="T9">
-        <v>0.009208814984754548</v>
+        <v>0.008676248123572093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H10">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>243.9664225231602</v>
+        <v>191.585422259937</v>
       </c>
       <c r="R10">
-        <v>2195.697802708442</v>
+        <v>1724.268800339433</v>
       </c>
       <c r="S10">
-        <v>0.02353816874895251</v>
+        <v>0.01652647451365189</v>
       </c>
       <c r="T10">
-        <v>0.02353816874895252</v>
+        <v>0.01652647451365189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H11">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>122.6907610712595</v>
+        <v>89.27551623970798</v>
       </c>
       <c r="R11">
-        <v>1104.216849641336</v>
+        <v>803.4796461573719</v>
       </c>
       <c r="S11">
-        <v>0.01183734961625125</v>
+        <v>0.007701053276521533</v>
       </c>
       <c r="T11">
-        <v>0.01183734961625125</v>
+        <v>0.007701053276521533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H12">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>39.70779224690889</v>
+        <v>25.012647978615</v>
       </c>
       <c r="R12">
-        <v>357.37013022218</v>
+        <v>225.113831807535</v>
       </c>
       <c r="S12">
-        <v>0.003831054720111583</v>
+        <v>0.002157632268997371</v>
       </c>
       <c r="T12">
-        <v>0.003831054720111583</v>
+        <v>0.00215763226899737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H13">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>117.4810502136375</v>
+        <v>90.08270161469102</v>
       </c>
       <c r="R13">
-        <v>1057.329451922738</v>
+        <v>810.7443145322191</v>
       </c>
       <c r="S13">
-        <v>0.01133471055620472</v>
+        <v>0.007770682418290735</v>
       </c>
       <c r="T13">
-        <v>0.01133471055620472</v>
+        <v>0.007770682418290735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H14">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>10.56678156399778</v>
+        <v>1.261125238443667</v>
       </c>
       <c r="R14">
-        <v>95.10103407598</v>
+        <v>11.350127145993</v>
       </c>
       <c r="S14">
-        <v>0.001019495572441279</v>
+        <v>0.0001087867430925132</v>
       </c>
       <c r="T14">
-        <v>0.001019495572441279</v>
+        <v>0.0001087867430925132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H15">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>5.314036492204445</v>
+        <v>0.5876627009346665</v>
       </c>
       <c r="R15">
-        <v>47.82632842984</v>
+        <v>5.288964308412</v>
       </c>
       <c r="S15">
-        <v>0.0005127045205564121</v>
+        <v>5.069275383825225E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005127045205564121</v>
+        <v>5.069275383825225E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H16">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>1.719841454911111</v>
+        <v>0.1646476087483333</v>
       </c>
       <c r="R16">
-        <v>15.4785730942</v>
+        <v>1.481828478735</v>
       </c>
       <c r="S16">
-        <v>0.0001659323359684824</v>
+        <v>1.42027742905263E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001659323359684824</v>
+        <v>1.42027742905263E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H17">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>5.088391192024444</v>
+        <v>0.5929760584776668</v>
       </c>
       <c r="R17">
-        <v>45.79552072822</v>
+        <v>5.336784526299001</v>
       </c>
       <c r="S17">
-        <v>0.0004909339953418586</v>
+        <v>5.115109282344483E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004909339953418586</v>
+        <v>5.115109282344484E-05</v>
       </c>
     </row>
   </sheetData>
